--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel.xlsx
@@ -10,6 +10,8 @@
     <sheet name="pseudoinverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="pseudoinverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="pseudoinverse_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="pseudoinverse_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="pseudoinverse_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1471,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>79.18770923623906</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5306078068317219</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7918770923623907</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7883349380714317</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80.64974610507012</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4898205594935764</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8064974610507012</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8071377059760383</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>81.54378498083892</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5240812231320888</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8154378498083894</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8136354785085338</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>71.33634373999776</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.035289240131775</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7133634373999775</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6916150946640208</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>64.90064792948036</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9478725811466575</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6490064792948036</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6230852510083923</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>68.20707791589892</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9486425742196539</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6820707791589893</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6660786010504798</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>77.50058391508577</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6220718731482824</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7750058391508576</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7555857468598852</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>72.84777549978807</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7191775301937013</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7284777549978806</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7058221877986502</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>76.42211437815206</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5665777840496352</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7642211437815206</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7565209391059313</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>72.54984904713709</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7608476020327847</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7254984904713708</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7135633575387778</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>64.3230477772299</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.071342075243592</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.643230477772299</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6345423980171245</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>69.25777904653155</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8868912172814211</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6925777904653154</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6783653747765669</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>92.2137734755491</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1872605632602548</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.922137734755491</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9221095869991045</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>79.02248289345064</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5723927857199063</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7902248289345064</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7717172222106204</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.6980510212026</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1326003456992718</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.946980510212026</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9455689033648808</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>76.31071779744347</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6663650507722884</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7631071779744347</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7515788523966959</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>74.91699755188193</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6397352036088705</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7491699755188194</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7463482279388753</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>73.3679357087864</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6949892058502882</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.733679357087864</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7160352235348263</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>80.7775153764306</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4902367853869994</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.807775153764306</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8052277670881139</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>62.8918070225521</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9638447150588035</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6289180702255209</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6120076591558213</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>61.33495964497963</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.072877651453018</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6133495964497963</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.582856156448857</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>63.46473585411638</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9066268493731815</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6346473585411638</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6273720361396846</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>62.04205918736321</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.079585446417332</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6204205918736322</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5998601533271708</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>67.22186178081125</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7806860397259394</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6722186178081124</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6633205726563948</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>63.96794089914273</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7979976812998453</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6396794089914273</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6376919089896079</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>68.47308367719444</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7166931725417575</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6847308367719445</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6732758125102879</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>55.60143253834376</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.196718163772796</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5560143253834375</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5367961235683602</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.19927508023426</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.848011600971222</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6619927508023427</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6480650868479731</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>71.67752316196507</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6964782414336999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7167752316196506</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7089618301702919</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>80.02750888848519</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4533288762594263</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8002750888848519</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7899823273949627</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>88.84255054109465</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3660532156548774</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8884255054109464</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8829719807719856</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>69.38714579422543</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7802575232538708</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6938714579422545</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6820515244362143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_pseudoinverse_kernel.xlsx
@@ -10,8 +10,10 @@
     <sheet name="pseudoinverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="pseudoinverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="pseudoinverse_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="pseudoinverse_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="pseudoinverse_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="pseudoinverse_sr_0.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="pseudoinverse_sr_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="pseudoinverse_sr_0.15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="pseudoinverse_sr_0.1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.24796062249673</v>
+        <v>96.16519174041298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1388881133815933</v>
+        <v>0.09735839121519045</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9424796062249673</v>
+        <v>0.9616519174041297</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9412649432247399</v>
+        <v>0.9614787471669228</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.92625368731564</v>
+        <v>94.66111298540645</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1578002871860079</v>
+        <v>0.1616684407470132</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9492625368731563</v>
+        <v>0.9466111298540645</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9466213951957213</v>
+        <v>0.9452183802715414</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.047197640118</v>
+        <v>97.02064896755162</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1195103277879146</v>
+        <v>0.1112889234227623</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9604719764011799</v>
+        <v>0.9702064896755163</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9588627819565062</v>
+        <v>0.9698215920145717</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.86725663716814</v>
+        <v>89.97050147492625</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1473648673321198</v>
+        <v>0.3016072785767998</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9486725663716815</v>
+        <v>0.8997050147492626</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9469165686828784</v>
+        <v>0.8928819673729128</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80.56341317831469</v>
+        <v>80.76886478256732</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4373604280563693</v>
+        <v>0.5063199146922368</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8056341317831469</v>
+        <v>0.8076886478256732</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7913343417038646</v>
+        <v>0.7871609880300602</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.92017231982975</v>
+        <v>91.03314042509018</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1898514400546749</v>
+        <v>0.2785156209642689</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9192017231982975</v>
+        <v>0.9103314042509018</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9178422361362042</v>
+        <v>0.8989455830369216</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.43657817109144</v>
+        <v>90.29498525073745</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2705714524384045</v>
+        <v>0.2695677915452203</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8843657817109145</v>
+        <v>0.9029498525073747</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8830370855722819</v>
+        <v>0.8990488207072496</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.33055649270322</v>
+        <v>92.62554174344068</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1966471554449526</v>
+        <v>0.1722844167567625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9233055649270323</v>
+        <v>0.9262554174344068</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9197390176266378</v>
+        <v>0.9248587550798286</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.74041297935104</v>
+        <v>93.21533923303835</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2151856625949828</v>
+        <v>0.1878778129835458</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9174041297935103</v>
+        <v>0.9321533923303835</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9117125631224587</v>
+        <v>0.9317064395044579</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.03244837758112</v>
+        <v>87.10914454277285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2286279935002919</v>
+        <v>0.4106345347717554</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9103244837758112</v>
+        <v>0.8710914454277287</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9028460140218044</v>
+        <v>0.859532783045373</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.71386430678466</v>
+        <v>84.12979351032449</v>
       </c>
       <c r="C12" t="n">
-        <v>0.588223750143455</v>
+        <v>0.6658696048976708</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8271386430678467</v>
+        <v>0.8412979351032449</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8192725582591578</v>
+        <v>0.827393038590617</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.98525073746313</v>
+        <v>87.93510324483776</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5983514833060326</v>
+        <v>0.6317467473466726</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8498525073746312</v>
+        <v>0.8793510324483776</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8353882490323615</v>
+        <v>0.8596887466817874</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.14454277286136</v>
+        <v>99.05604719764013</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03161222196794521</v>
+        <v>0.03538568963460118</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9914454277286137</v>
+        <v>0.9905604719764012</v>
       </c>
       <c r="E14" t="n">
-        <v>0.991464003454864</v>
+        <v>0.9905854317867545</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.43952802359881</v>
+        <v>99.67551622418878</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01391553490212705</v>
+        <v>0.009574073700980535</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9943952802359881</v>
+        <v>0.996755162241888</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9944081198252146</v>
+        <v>0.9967563326815455</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.07669616519175</v>
+        <v>95.13274336283186</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08655794236322738</v>
+        <v>0.1220196249537689</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9607669616519174</v>
+        <v>0.9513274336283185</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9593020698145388</v>
+        <v>0.9460882540697382</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.89814214079131</v>
+        <v>91.91957831238447</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2280312440306733</v>
+        <v>0.2641145910806166</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9189814214079131</v>
+        <v>0.9191957831238448</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9146674631752822</v>
+        <v>0.9127443906693522</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +823,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.20353982300885</v>
+        <v>88.76106194690266</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2634683657437563</v>
+        <v>0.2854981564858463</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8920353982300885</v>
+        <v>0.8876106194690265</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8898851287720705</v>
+        <v>0.8844862664000155</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +842,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.69267900241351</v>
+        <v>85.55402728397306</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4692051442398224</v>
+        <v>0.3172567002315191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8369267900241351</v>
+        <v>0.8555402728397304</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8184068673787817</v>
+        <v>0.8474437021426869</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +861,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.05934307390203</v>
+        <v>92.94985250737463</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2305238026815156</v>
+        <v>0.1586173119372385</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9005934307390202</v>
+        <v>0.9294985250737463</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9014670463995913</v>
+        <v>0.9290429739698169</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +880,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.70101817489771</v>
+        <v>87.7287865811988</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3365949335837892</v>
+        <v>0.3238676894184512</v>
       </c>
       <c r="D5" t="n">
-        <v>0.877010181748977</v>
+        <v>0.877287865811988</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8728403204855344</v>
+        <v>0.8660964036724413</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +899,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.250157873338</v>
+        <v>69.15596155676087</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8802921353810234</v>
+        <v>0.8995523539352386</v>
       </c>
       <c r="D6" t="n">
-        <v>0.68250157873338</v>
+        <v>0.6915596155676087</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6593835359490418</v>
+        <v>0.6712217306991113</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +918,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.67129473438351</v>
+        <v>81.9091860656234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4766644025842349</v>
+        <v>0.7052209931580971</v>
       </c>
       <c r="D7" t="n">
-        <v>0.816712947343835</v>
+        <v>0.819091860656234</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8102393509968092</v>
+        <v>0.7980544070678948</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +937,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.16935267606121</v>
+        <v>91.09231048711494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.289306244517987</v>
+        <v>0.2523544400891599</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8716935267606122</v>
+        <v>0.9109231048711495</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8698668215407235</v>
+        <v>0.9030232698558626</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +956,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.67030856668309</v>
+        <v>90.53131947508197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2987832719091481</v>
+        <v>0.221372894969924</v>
       </c>
       <c r="D9" t="n">
-        <v>0.876703085666831</v>
+        <v>0.9053131947508197</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8738227320420794</v>
+        <v>0.9030331797140487</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +975,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88.99791520687896</v>
+        <v>88.99808821875622</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2724266719422303</v>
+        <v>0.2701084706874098</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8899791520687895</v>
+        <v>0.8899808821875622</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8890492625212202</v>
+        <v>0.8877238035160147</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +994,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.39267640723536</v>
+        <v>83.33540947586052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4625986768243214</v>
+        <v>0.4338804935861845</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8339267640723536</v>
+        <v>0.8333540947586051</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8298621298505738</v>
+        <v>0.8266384905299559</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1013,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78.73277450496977</v>
+        <v>80.70882966115624</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7142769844330663</v>
+        <v>0.6857683383828166</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7873277450496976</v>
+        <v>0.8070882966115625</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7739584811478084</v>
+        <v>0.7927283133613631</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1032,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.58771269647661</v>
+        <v>81.77025752817931</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6878770836396143</v>
+        <v>0.6261133459901127</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7958771269647661</v>
+        <v>0.8177025752817931</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7845678877890501</v>
+        <v>0.8065842758358739</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1051,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.30088495575221</v>
+        <v>95.6637168141593</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2065808299770045</v>
+        <v>0.1238491878305164</v>
       </c>
       <c r="D14" t="n">
-        <v>0.923008849557522</v>
+        <v>0.9566371681415931</v>
       </c>
       <c r="E14" t="n">
-        <v>0.922599577187125</v>
+        <v>0.9568632207086762</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1070,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.48377581120944</v>
+        <v>91.59292035398229</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1343784299015018</v>
+        <v>0.2263587745012955</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9448377581120944</v>
+        <v>0.9159292035398231</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9453525512784757</v>
+        <v>0.9142700713590127</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1089,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.84070796460178</v>
+        <v>96.047197640118</v>
       </c>
       <c r="C16" t="n">
-        <v>0.105400722066876</v>
+        <v>0.1020872614696297</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9584070796460177</v>
+        <v>0.9604719764011799</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9575252121404553</v>
+        <v>0.9598378636268003</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1108,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85.91694276478746</v>
+        <v>87.05326170641614</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3885585132950594</v>
+        <v>0.3754604275115627</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8591694276478746</v>
+        <v>0.8705326170641616</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8532551270319558</v>
+        <v>0.8631365314973052</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1173,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.57348246957153</v>
+        <v>84.45704547617194</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5197093616627778</v>
+        <v>0.4013699347851798</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8457348246957153</v>
+        <v>0.8445704547617193</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8393882555285757</v>
+        <v>0.8372647929394763</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1192,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.81152951150096</v>
+        <v>84.90471370859609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4537225905159478</v>
+        <v>0.3513086585442579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8281152951150096</v>
+        <v>0.8490471370859609</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8142676607639338</v>
+        <v>0.8420291255809547</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.3754963278229</v>
+        <v>89.9410029498525</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3970022812927103</v>
+        <v>0.269207322896303</v>
       </c>
       <c r="D4" t="n">
-        <v>0.873754963278229</v>
+        <v>0.899410029498525</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8740771300439845</v>
+        <v>0.8968983331584909</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1230,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.84052630213064</v>
+        <v>79.70674486803519</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3851139489561319</v>
+        <v>0.548627469005684</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8484052630213064</v>
+        <v>0.797067448680352</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8439491110492245</v>
+        <v>0.7910962194832026</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1249,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.00773363091376</v>
+        <v>63.3554788536233</v>
       </c>
       <c r="C6" t="n">
-        <v>1.109200224363788</v>
+        <v>1.021634936643144</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6400773363091377</v>
+        <v>0.633554788536233</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6086713321297431</v>
+        <v>0.6052635600819347</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1268,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.48317892023287</v>
+        <v>73.91162553309285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7891084888290304</v>
+        <v>0.6508186400402337</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7548317892023287</v>
+        <v>0.7391162553309285</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7431021007827212</v>
+        <v>0.7361894506013615</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1287,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.86932412910146</v>
+        <v>77.73916729383473</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4453789278554419</v>
+        <v>0.5902669719730814</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8386932412910146</v>
+        <v>0.7773916729383472</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8347214150112212</v>
+        <v>0.7790484839606403</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1306,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.98090813934377</v>
+        <v>85.81311257017794</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4261107680232574</v>
+        <v>0.3584003567928448</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8298090813934376</v>
+        <v>0.8581311257017795</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8303167719713261</v>
+        <v>0.8568077345508162</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1325,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.0757878528361</v>
+        <v>87.78916772636441</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4864177507464774</v>
+        <v>0.3149708920313666</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8107578785283609</v>
+        <v>0.877891677263644</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7855462041760573</v>
+        <v>0.8712207557044632</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1344,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.27520134257216</v>
+        <v>82.51031583318195</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4652192524270504</v>
+        <v>0.4161023438442498</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8327520134257217</v>
+        <v>0.8251031583318195</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8294584961922743</v>
+        <v>0.8178633138105598</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1363,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>76.5500566613898</v>
+        <v>76.01925622193963</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7925428122320833</v>
+        <v>0.6257146487575179</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7655005666138981</v>
+        <v>0.7601925622193964</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7579054286736515</v>
+        <v>0.7568089450744686</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1382,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.79936677652921</v>
+        <v>81.45079109680879</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6417427857716879</v>
+        <v>0.5315323998142655</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7679936677652921</v>
+        <v>0.8145079109680881</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7611022665077103</v>
+        <v>0.8110820192143533</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1401,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94.95575221238938</v>
+        <v>93.98230088495575</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1290505454400167</v>
+        <v>0.1746036782763743</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9495575221238939</v>
+        <v>0.9398230088495575</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9498989378315953</v>
+        <v>0.9405688544277693</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1420,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86.63734115347019</v>
+        <v>87.34617081462643</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3840426825070911</v>
+        <v>0.3770309588056989</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8663734115347019</v>
+        <v>0.8734617081462643</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8554376112759442</v>
+        <v>0.8705571492045958</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1439,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.25663716814159</v>
+        <v>94.21880812117752</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07930084858808943</v>
+        <v>0.1567043259890246</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9725663716814159</v>
+        <v>0.9421880812117752</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9723356768206939</v>
+        <v>0.9403194051062652</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1458,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.83282150652977</v>
+        <v>82.87638013016262</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5002442179474388</v>
+        <v>0.4525529025466151</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8283282150652977</v>
+        <v>0.8287638013016261</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8200118932505771</v>
+        <v>0.8235345428599569</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1523,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.18770923623906</v>
+        <v>86.13638526284829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5306078068317219</v>
+        <v>0.3574870179407298</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7918770923623907</v>
+        <v>0.8613638526284829</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7883349380714317</v>
+        <v>0.8585276395036378</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1542,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.64974610507012</v>
+        <v>80.6258704660075</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4898205594935764</v>
+        <v>0.5349379016435705</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8064974610507012</v>
+        <v>0.8062587046600749</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8071377059760383</v>
+        <v>0.7906292572910342</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1561,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.54378498083892</v>
+        <v>86.81519736329899</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5240812231320888</v>
+        <v>0.3834537367258842</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8154378498083894</v>
+        <v>0.86815197363299</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8136354785085338</v>
+        <v>0.8685392459325028</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1580,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71.33634373999776</v>
+        <v>75.99200685127035</v>
       </c>
       <c r="C5" t="n">
-        <v>1.035289240131775</v>
+        <v>0.6917619531818976</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7133634373999775</v>
+        <v>0.7599200685127034</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6916150946640208</v>
+        <v>0.7410012477318837</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1599,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.90064792948036</v>
+        <v>64.29579840656061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9478725811466575</v>
+        <v>0.9207281620426025</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6490064792948036</v>
+        <v>0.6429579840656061</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6230852510083923</v>
+        <v>0.6209892578207452</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1618,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.20707791589892</v>
+        <v>75.82954869851815</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9486425742196539</v>
+        <v>0.575411166374882</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6820707791589893</v>
+        <v>0.7582954869851816</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6660786010504798</v>
+        <v>0.7606746251474733</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1637,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.50058391508577</v>
+        <v>82.5392953226239</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6220718731482824</v>
+        <v>0.4707258812772731</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7750058391508576</v>
+        <v>0.825392953226239</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7555857468598852</v>
+        <v>0.8195851376051762</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1656,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72.84777549978807</v>
+        <v>81.12250105969775</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7191775301937013</v>
+        <v>0.4999373101784538</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7284777549978806</v>
+        <v>0.8112250105969775</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7058221877986502</v>
+        <v>0.8075181739895679</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1675,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.42211437815206</v>
+        <v>82.46221853130217</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5665777840496352</v>
+        <v>0.4469105012821576</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7642211437815206</v>
+        <v>0.8246221853130218</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7565209391059313</v>
+        <v>0.8227155028413107</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1694,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.54984904713709</v>
+        <v>84.92677272294743</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7608476020327847</v>
+        <v>0.3880279226740944</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7254984904713708</v>
+        <v>0.8492677272294742</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7135633575387778</v>
+        <v>0.8437225237482158</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1713,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.3230477772299</v>
+        <v>74.60834436284051</v>
       </c>
       <c r="C12" t="n">
-        <v>1.071342075243592</v>
+        <v>0.6637593714520336</v>
       </c>
       <c r="D12" t="n">
-        <v>0.643230477772299</v>
+        <v>0.7460834436284051</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6345423980171245</v>
+        <v>0.7467192284646709</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1732,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.25777904653155</v>
+        <v>78.58770404588276</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8868912172814211</v>
+        <v>0.5486018725360433</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6925777904653154</v>
+        <v>0.7858770404588274</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6783653747765669</v>
+        <v>0.7876146705762476</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1751,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.2137734755491</v>
+        <v>91.38694971409788</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1872605632602548</v>
+        <v>0.2364984741434455</v>
       </c>
       <c r="D14" t="n">
-        <v>0.922137734755491</v>
+        <v>0.9138694971409788</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9221095869991045</v>
+        <v>0.9149199706224301</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.02248289345064</v>
+        <v>85.33940605022535</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5723927857199063</v>
+        <v>0.4143299697131018</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7902248289345064</v>
+        <v>0.8533940605022534</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7717172222106204</v>
+        <v>0.8464903230074917</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1789,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.6980510212026</v>
+        <v>94.39545324786546</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1326003456992718</v>
+        <v>0.1738237084862097</v>
       </c>
       <c r="D16" t="n">
-        <v>0.946980510212026</v>
+        <v>0.9439545324786547</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9455689033648808</v>
+        <v>0.9432231535040529</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1808,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.31071779744347</v>
+        <v>81.6708968070658</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6663650507722884</v>
+        <v>0.487092996643492</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7631071779744347</v>
+        <v>0.8167089680706581</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7515788523966959</v>
+        <v>0.8115246638524295</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1873,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.91699755188193</v>
+        <v>82.39266775664149</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6397352036088705</v>
+        <v>0.4873412292605887</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7491699755188194</v>
+        <v>0.8239266775664149</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7463482279388753</v>
+        <v>0.8163007596158535</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1892,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.3679357087864</v>
+        <v>79.09731053036792</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6949892058502882</v>
+        <v>0.4907910005946178</v>
       </c>
       <c r="D3" t="n">
-        <v>0.733679357087864</v>
+        <v>0.790973105303679</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7160352235348263</v>
+        <v>0.7842432862806986</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1911,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.7775153764306</v>
+        <v>83.75409821884273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4902367853869994</v>
+        <v>0.4312876682728529</v>
       </c>
       <c r="D4" t="n">
-        <v>0.807775153764306</v>
+        <v>0.8375409821884272</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8052277670881139</v>
+        <v>0.8333533869946587</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1930,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.8918070225521</v>
+        <v>72.8168928796962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9638447150588035</v>
+        <v>0.7927548743163546</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6289180702255209</v>
+        <v>0.7281689287969619</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6120076591558213</v>
+        <v>0.7132091817326445</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1949,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.33495964497963</v>
+        <v>64.10937810880716</v>
       </c>
       <c r="C6" t="n">
-        <v>1.072877651453018</v>
+        <v>0.9692415245963882</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6133495964497963</v>
+        <v>0.6410937810880717</v>
       </c>
       <c r="E6" t="n">
-        <v>0.582856156448857</v>
+        <v>0.6164303824302875</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1968,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.46473585411638</v>
+        <v>74.82625282225624</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9066268493731815</v>
+        <v>0.6653206879893938</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6346473585411638</v>
+        <v>0.7482625282225625</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6273720361396846</v>
+        <v>0.7498674237293351</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1987,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.04205918736321</v>
+        <v>75.40809176549971</v>
       </c>
       <c r="C8" t="n">
-        <v>1.079585446417332</v>
+        <v>0.726468417669336</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6204205918736322</v>
+        <v>0.7540809176549971</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5998601533271708</v>
+        <v>0.7382642671384583</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2006,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67.22186178081125</v>
+        <v>75.58404484467859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7806860397259394</v>
+        <v>0.5927405750456577</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6722186178081124</v>
+        <v>0.7558404484467859</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6633205726563948</v>
+        <v>0.7535539340176312</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2025,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.96794089914273</v>
+        <v>77.7412434363619</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7979976812998453</v>
+        <v>0.5693879497858385</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6396794089914273</v>
+        <v>0.7774124343636191</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6376919089896079</v>
+        <v>0.7616514551675764</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2044,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.47308367719444</v>
+        <v>76.67929653370705</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7166931725417575</v>
+        <v>0.5797510923584923</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6847308367719445</v>
+        <v>0.7667929653370704</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6732758125102879</v>
+        <v>0.7551812541339148</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2063,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55.60143253834376</v>
+        <v>66.02254344760767</v>
       </c>
       <c r="C12" t="n">
-        <v>1.196718163772796</v>
+        <v>0.9316453387960791</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5560143253834375</v>
+        <v>0.6602254344760767</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5367961235683602</v>
+        <v>0.6489977653398268</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2082,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.19927508023426</v>
+        <v>76.65568041246031</v>
       </c>
       <c r="C13" t="n">
-        <v>0.848011600971222</v>
+        <v>0.6920915759479006</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6619927508023427</v>
+        <v>0.7665568041246031</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6480650868479731</v>
+        <v>0.7588645176318543</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2101,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.67752316196507</v>
+        <v>88.14159292035399</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6964782414336999</v>
+        <v>0.3578519923379645</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7167752316196506</v>
+        <v>0.8814159292035398</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7089618301702919</v>
+        <v>0.8802959670574916</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2120,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.02750888848519</v>
+        <v>85.19381655550653</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4533288762594263</v>
+        <v>0.5188635395126766</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8002750888848519</v>
+        <v>0.8519381655550653</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7899823273949627</v>
+        <v>0.8340383000367495</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2139,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.84255054109465</v>
+        <v>93.869670152856</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3660532156548774</v>
+        <v>0.1703065734288733</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8884255054109464</v>
+        <v>0.9386967015285599</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8829719807719856</v>
+        <v>0.9367810051279737</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2158,716 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>69.38714579422543</v>
+        <v>78.15283869237624</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7802575232538708</v>
+        <v>0.5983896026608676</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6938714579422545</v>
+        <v>0.7815283869237623</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6820515244362143</v>
+        <v>0.7720688590956637</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>74.14501855552383</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6857567233343919</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7414501855552385</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7360126858379501</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>72.12917066756634</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7652123242616653</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7212917066756633</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7168535104608417</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>78.68554226247632</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5369896582638225</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7868554226247632</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7839055603560302</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>68.81616622981167</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8747490465641021</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6881616622981167</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6747750171832949</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>64.8399207605602</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.086177759586523</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6483992076056021</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6168542558801369</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>70.12430903381517</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7716207476953666</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7012430903381517</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.693707232551905</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>68.02420436162943</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8727274124821027</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6802420436162943</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6574743990665992</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>61.12656683881348</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.023274789378047</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6112656683881348</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.586412588795105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>73.33566899367642</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6245152841011683</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7333566899367641</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7315528139192253</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>67.95577816417097</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8921190133551136</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6795577816417098</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6666355651587278</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>62.85227380859696</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9012157455086708</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6285227380859697</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6155020732161662</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>68.82620091869306</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.837464294830958</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6882620091869307</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6759382941474764</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>77.18077145996072</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6096766005580624</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7718077145996073</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7621751075254685</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>80.18564174430574</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5119207475644847</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8018564174430575</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7841332231319939</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>91.54776425401603</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2711231460911222</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9154776425401604</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.914493961300115</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>71.9849998702411</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7509695529050401</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.719849998702411</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7077617525687357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>54.53100805370288</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.049147734045982</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5453100805370289</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5380539976595196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>57.60093080389969</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8709643900394439</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5760093080389969</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5486952505412315</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>61.66273064645888</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8891500373681387</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6166273064645889</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6117950109369998</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>59.51141445860257</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9654844731092453</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5951141445860259</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5801724557082311</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>58.27991591622765</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.021061292166511</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5827991591622765</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5499105885798858</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>56.68232424155919</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.006796712676684</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5668232424155918</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5643475696848441</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>42.10685213539909</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.559623126685619</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4210685213539909</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3598250299668602</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>49.66063720274396</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.153697042167187</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4966063720274397</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4564789996925389</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>47.62601752610317</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.240260637799899</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4762601752610316</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4397123741764831</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>60.46678604486198</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8685207605361939</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6046678604486198</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5901800798098711</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54.73299942041022</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.104557125022014</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5473299942041021</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5351646985088228</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>59.60077509321015</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9116566762328148</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5960077509321015</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5860146832381294</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>69.21089282779262</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7746314701934656</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6921089282779264</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6815941192610705</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>76.8104395366742</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.543744754815998</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7681043953667419</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7616967482117619</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>90.10752688172042</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2857816270242134</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9010752688172043</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9021292510841267</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>59.90608338595778</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9496718573255607</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5990608338595779</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5803847238040251</v>
       </c>
     </row>
   </sheetData>
